--- a/output/accuracy/xgboost.xlsx
+++ b/output/accuracy/xgboost.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Upswing Pursuit\Courses\Udacity\ML Engineer Nanodegree\Project\predict-suicides-to-save-lives\output\accuracy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{350878A3-BF46-49AA-B514-2F0AE2E03416}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80D7A2B3-C93C-4DF8-B546-D02327D7F1B7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,12 +20,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>approach</t>
   </si>
   <si>
-    <t>accuracy</t>
+    <t>test_accuracy</t>
+  </si>
+  <si>
+    <t>train_accuracy</t>
   </si>
   <si>
     <t>raw</t>
@@ -439,56 +442,72 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B5"/>
+      <selection activeCell="B2" sqref="B2:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>0.65990783410138254</v>
+        <v>0.65437788018433185</v>
+      </c>
+      <c r="C2">
+        <v>0.69514443761524281</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3">
-        <v>0.67004608294930879</v>
+        <v>0.67373271889400921</v>
+      </c>
+      <c r="C3">
+        <v>0.68223724646588813</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>0.68387096774193545</v>
+        <v>0.6645161290322581</v>
+      </c>
+      <c r="C4">
+        <v>0.70467117393976642</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5">
-        <v>0.67649769585253461</v>
+        <v>0.65806451612903227</v>
+      </c>
+      <c r="C5">
+        <v>0.67854947756607253</v>
       </c>
     </row>
   </sheetData>
